--- a/admin/CSE Database (Responses) (1).xlsx
+++ b/admin/CSE Database (Responses) (1).xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\tpo-pec\admin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19440" windowHeight="7365"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19440" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses" sheetId="1" r:id="rId1"/>
+    <sheet name="students" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="423">
   <si>
     <t>Timestamp</t>
   </si>
@@ -998,6 +1004,291 @@
   </si>
   <si>
     <t>20/05/201417:47:52</t>
+  </si>
+  <si>
+    <t>Sahil Sharma</t>
+  </si>
+  <si>
+    <t>Date_of_Birth</t>
+  </si>
+  <si>
+    <t>Contact_Number</t>
+  </si>
+  <si>
+    <t>Email_ID</t>
+  </si>
+  <si>
+    <t>Correspondence_Address</t>
+  </si>
+  <si>
+    <t>Permanent_Address</t>
+  </si>
+  <si>
+    <t>AIEEE_Rank</t>
+  </si>
+  <si>
+    <t>Class_10th_CGPA</t>
+  </si>
+  <si>
+    <t>Class_10th_Board</t>
+  </si>
+  <si>
+    <t>Year_of_Passing_Class_10th</t>
+  </si>
+  <si>
+    <t>Name_of_School_of_Passing_Class_10th</t>
+  </si>
+  <si>
+    <t>Class_12th_Percentage</t>
+  </si>
+  <si>
+    <t>Class_12th_Board</t>
+  </si>
+  <si>
+    <t>Year_of_Passing_Class_12th</t>
+  </si>
+  <si>
+    <t>Name_of_School_of_passing_Class_12th</t>
+  </si>
+  <si>
+    <t>SGPA_SEM_1</t>
+  </si>
+  <si>
+    <t>SGPA_SEM_2</t>
+  </si>
+  <si>
+    <t>SGPA_SEM_3</t>
+  </si>
+  <si>
+    <t>SGPA_SEM_4</t>
+  </si>
+  <si>
+    <t>Summer_Training_if_any</t>
+  </si>
+  <si>
+    <t>Backlog_if_any</t>
+  </si>
+  <si>
+    <t>Father's_Name</t>
+  </si>
+  <si>
+    <t>Mother's_Name</t>
+  </si>
+  <si>
+    <t>Parent's_Contact_No._With_Name</t>
+  </si>
+  <si>
+    <t>5/24/2014 2:25:55 PM</t>
+  </si>
+  <si>
+    <t>211569</t>
+  </si>
+  <si>
+    <t>5/9/2014 10:11:37 PM</t>
+  </si>
+  <si>
+    <t>75514</t>
+  </si>
+  <si>
+    <t>5/9/2014 7:53:33 AM</t>
+  </si>
+  <si>
+    <t>2268</t>
+  </si>
+  <si>
+    <t>5/24/2014 6:36:36 PM</t>
+  </si>
+  <si>
+    <t>280000</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>9815831304</t>
+  </si>
+  <si>
+    <t>5/9/2014 11:55:24 PM</t>
+  </si>
+  <si>
+    <t>873</t>
+  </si>
+  <si>
+    <t>5/20/2014 3:47:57 PM</t>
+  </si>
+  <si>
+    <t>2590</t>
+  </si>
+  <si>
+    <t>9855732720</t>
+  </si>
+  <si>
+    <t>5/24/2014 11:39:19 AM</t>
+  </si>
+  <si>
+    <t>2701</t>
+  </si>
+  <si>
+    <t>5/9/2014 10:38:37 AM</t>
+  </si>
+  <si>
+    <t>69149</t>
+  </si>
+  <si>
+    <t>5/13/2014 8:52:47 PM</t>
+  </si>
+  <si>
+    <t>2964</t>
+  </si>
+  <si>
+    <t>9878996748</t>
+  </si>
+  <si>
+    <t>5/11/2014 10:58:13 PM</t>
+  </si>
+  <si>
+    <t>5/15/2014 4:09:35 PM</t>
+  </si>
+  <si>
+    <t>37667</t>
+  </si>
+  <si>
+    <t>5/24/2014 3:27:17 PM</t>
+  </si>
+  <si>
+    <t>41766</t>
+  </si>
+  <si>
+    <t>5/23/2014 4:21:11 PM</t>
+  </si>
+  <si>
+    <t>2796</t>
+  </si>
+  <si>
+    <t>6/11/2014 10:37:52 PM</t>
+  </si>
+  <si>
+    <t>69448</t>
+  </si>
+  <si>
+    <t>+918002490903-Anu Lal</t>
+  </si>
+  <si>
+    <t>5/15/2014 8:47:41 PM</t>
+  </si>
+  <si>
+    <t>6/24/2014 12:19:57 AM</t>
+  </si>
+  <si>
+    <t>5/23/2014 8:28:30 AM</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>87.6</t>
+  </si>
+  <si>
+    <t>5/24/2014 6:39:28 PM</t>
+  </si>
+  <si>
+    <t>5/10/2014 6:09:54 AM</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>5/28/2014 11:46:33 PM</t>
+  </si>
+  <si>
+    <t>3264</t>
+  </si>
+  <si>
+    <t>5/24/2014 10:36:09 AM</t>
+  </si>
+  <si>
+    <t>2612</t>
+  </si>
+  <si>
+    <t>5/26/2014 8:25:41 PM</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>44524</t>
+  </si>
+  <si>
+    <t>5/13/2014 9:20:10 PM</t>
+  </si>
+  <si>
+    <t>3095</t>
+  </si>
+  <si>
+    <t>9023255105</t>
+  </si>
+  <si>
+    <t>5/11/2014 12:47:35 AM</t>
+  </si>
+  <si>
+    <t>2892</t>
+  </si>
+  <si>
+    <t>+919417183394 Ashwani Bhatia</t>
+  </si>
+  <si>
+    <t>5/24/2014 12:19:39 PM</t>
+  </si>
+  <si>
+    <t>2934</t>
+  </si>
+  <si>
+    <t>5/13/2014 8:31:56 PM</t>
+  </si>
+  <si>
+    <t>3118</t>
+  </si>
+  <si>
+    <t>5/11/2014 8:43:16 PM</t>
+  </si>
+  <si>
+    <t>3176</t>
+  </si>
+  <si>
+    <t>5/24/2014 1:20:17 PM</t>
+  </si>
+  <si>
+    <t>3329</t>
+  </si>
+  <si>
+    <t>5/20/2014 8:12:40 AM</t>
+  </si>
+  <si>
+    <t>3242</t>
+  </si>
+  <si>
+    <t>5/24/2014 6:31:14 PM</t>
+  </si>
+  <si>
+    <t>3414</t>
+  </si>
+  <si>
+    <t>5/19/2014 7:08:08 PM</t>
+  </si>
+  <si>
+    <t>3769</t>
+  </si>
+  <si>
+    <t>5/13/2014 12:43:29 PM</t>
+  </si>
+  <si>
+    <t>3841</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1299,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1026,8 +1317,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1088,6 +1386,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7D7D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFCC7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1116,7 +1426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1189,15 +1499,75 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1246,7 +1616,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1281,7 +1651,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1492,9 +1862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1679,7 +2049,7 @@
         <v>12103001</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>50</v>
+        <v>328</v>
       </c>
       <c r="D3" s="16">
         <v>34536</v>
@@ -4423,4 +4793,2991 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="25">
+        <v>11103009</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="26">
+        <v>34353</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="25">
+        <v>8284869003</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="L2" s="25">
+        <v>9.120000000000001</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="N2" s="25">
+        <v>2009</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="P2" s="25">
+        <v>68.399999999999991</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="R2" s="25">
+        <v>2011</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="T2" s="25">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="U2" s="25">
+        <v>5.45</v>
+      </c>
+      <c r="V2" s="25">
+        <v>5.69</v>
+      </c>
+      <c r="W2" s="25">
+        <v>6</v>
+      </c>
+      <c r="X2" s="25">
+        <v>5.47</v>
+      </c>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="25">
+        <v>12103001</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="26">
+        <v>34536</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="25">
+        <v>9501619007</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="25">
+        <v>8.4</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="25">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="25">
+        <v>3.52</v>
+      </c>
+      <c r="U3" s="25">
+        <v>6.4</v>
+      </c>
+      <c r="V3" s="25">
+        <v>4.92</v>
+      </c>
+      <c r="W3" s="25">
+        <v>5.29</v>
+      </c>
+      <c r="X3" s="25">
+        <v>5.43</v>
+      </c>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="25" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="25">
+        <v>12103002</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="26">
+        <v>34488</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="25">
+        <v>8054127656</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="25">
+        <v>9.6</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="25">
+        <v>91.2</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="25">
+        <v>8.32</v>
+      </c>
+      <c r="U4" s="25">
+        <v>7.7</v>
+      </c>
+      <c r="V4" s="25">
+        <v>8.31</v>
+      </c>
+      <c r="W4" s="25">
+        <v>7.86</v>
+      </c>
+      <c r="X4" s="25">
+        <v>8.1</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="B5" s="25">
+        <v>12103003</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="26">
+        <v>34196</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="25">
+        <v>9779222993</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="L5" s="25">
+        <v>9</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="N5" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="P5" s="25">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="R5" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="T5" s="25">
+        <v>6</v>
+      </c>
+      <c r="U5" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="V5" s="25">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="W5" s="25">
+        <v>6.43</v>
+      </c>
+      <c r="X5" s="25">
+        <v>5.62</v>
+      </c>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC5" s="24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" s="25">
+        <v>12103004</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="26">
+        <v>34856</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="25">
+        <v>8427044221</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="25">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="25">
+        <v>95.6</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" s="25">
+        <v>10</v>
+      </c>
+      <c r="U6" s="25">
+        <v>9.6</v>
+      </c>
+      <c r="V6" s="25">
+        <v>10</v>
+      </c>
+      <c r="W6" s="25">
+        <v>10</v>
+      </c>
+      <c r="X6" s="25">
+        <v>9.92</v>
+      </c>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="25" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="25">
+        <v>12103006</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="26">
+        <v>34845</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="25">
+        <v>9855561720</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0.94</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N7" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="25">
+        <v>0.94200000000000006</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="T7" s="25">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="U7" s="25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="V7" s="25">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="W7" s="25">
+        <v>9.43</v>
+      </c>
+      <c r="X7" s="25">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="Y7" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z7" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA7" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB7" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC7" s="24" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="25" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" s="25">
+        <v>12103008</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="26">
+        <v>34500</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="25">
+        <v>9878936840</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="25">
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="T8" s="25">
+        <v>7.68</v>
+      </c>
+      <c r="U8" s="25">
+        <v>6.4</v>
+      </c>
+      <c r="V8" s="25">
+        <v>8.15</v>
+      </c>
+      <c r="W8" s="25">
+        <v>8</v>
+      </c>
+      <c r="X8" s="25">
+        <v>7.68</v>
+      </c>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB8" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC8" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" s="25">
+        <v>12103009</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="26">
+        <v>34656</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="25">
+        <v>9988169815</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="25">
+        <v>9</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="25">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="25">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="U9" s="25">
+        <v>6.3</v>
+      </c>
+      <c r="V9" s="25">
+        <v>5.23</v>
+      </c>
+      <c r="W9" s="25">
+        <v>6</v>
+      </c>
+      <c r="X9" s="25">
+        <v>5.96</v>
+      </c>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB9" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="25">
+        <v>12103011</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="26">
+        <v>34315</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="25">
+        <v>9855461691</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0.93</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="25">
+        <v>2009</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="25">
+        <v>2011</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="T10" s="25">
+        <v>9.36</v>
+      </c>
+      <c r="U10" s="25">
+        <v>9.5</v>
+      </c>
+      <c r="V10" s="25">
+        <v>8</v>
+      </c>
+      <c r="W10" s="25">
+        <v>8.86</v>
+      </c>
+      <c r="X10" s="25">
+        <v>8.91</v>
+      </c>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB10" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC10" s="24" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="B11" s="25">
+        <v>12103012</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="26">
+        <v>34270</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="25">
+        <v>8054926199</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0.89570000000000005</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" s="25">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="T11" s="25">
+        <v>6</v>
+      </c>
+      <c r="U11" s="25">
+        <v>6.8</v>
+      </c>
+      <c r="V11" s="25">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="W11" s="25">
+        <v>7.71</v>
+      </c>
+      <c r="X11" s="25">
+        <v>6.55</v>
+      </c>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB11" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC11" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="25" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="25">
+        <v>12103013</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="26">
+        <v>34476</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="25">
+        <v>9417096708</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" s="25">
+        <v>9.6</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" s="25">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="T12" s="25">
+        <v>7.36</v>
+      </c>
+      <c r="U12" s="25">
+        <v>8</v>
+      </c>
+      <c r="V12" s="25">
+        <v>6.46</v>
+      </c>
+      <c r="W12" s="25">
+        <v>6.43</v>
+      </c>
+      <c r="X12" s="25">
+        <v>7.05</v>
+      </c>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA12" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB12" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC12" s="24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="25" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="25">
+        <v>12103014</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="26">
+        <v>34183</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="25">
+        <v>9041484458</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="N13" s="25">
+        <v>2009</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="R13" s="25">
+        <v>2011</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="T13" s="25">
+        <v>2.8</v>
+      </c>
+      <c r="U13" s="25">
+        <v>6.4</v>
+      </c>
+      <c r="V13" s="25">
+        <v>3.23</v>
+      </c>
+      <c r="W13" s="25">
+        <v>5.29</v>
+      </c>
+      <c r="X13" s="25">
+        <v>5.01</v>
+      </c>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA13" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB13" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC13" s="24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="25" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="B14" s="25">
+        <v>12103015</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="26">
+        <v>34661</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="25">
+        <v>9465465418</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="25">
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="P14" s="25">
+        <v>92.199999999999989</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="T14" s="25">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="U14" s="25">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="V14" s="25">
+        <v>7.85</v>
+      </c>
+      <c r="W14" s="25">
+        <v>7.57</v>
+      </c>
+      <c r="X14" s="25">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB14" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC14" s="24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="25">
+        <v>12103017</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="26">
+        <v>34715</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="25">
+        <v>8591417630</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="L15" s="25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="P15" s="25">
+        <v>88.6</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="T15" s="25">
+        <v>4.72</v>
+      </c>
+      <c r="U15" s="25">
+        <v>5.6</v>
+      </c>
+      <c r="V15" s="25">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="W15" s="25">
+        <v>5.86</v>
+      </c>
+      <c r="X15" s="25">
+        <v>5.56</v>
+      </c>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB15" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC15" s="27" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="25" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" s="25">
+        <v>12103019</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="26">
+        <v>34554</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="25">
+        <v>9646657592</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" s="25">
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" s="25">
+        <v>90.6</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="T16" s="25">
+        <v>6.4</v>
+      </c>
+      <c r="U16" s="25">
+        <v>6.32</v>
+      </c>
+      <c r="V16" s="25">
+        <v>6.15</v>
+      </c>
+      <c r="W16" s="25">
+        <v>6.86</v>
+      </c>
+      <c r="X16" s="25">
+        <v>6.67</v>
+      </c>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB16" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC16" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="25" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="25">
+        <v>12103020</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="26">
+        <v>34590</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="25">
+        <v>9023909198</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="L17" s="25">
+        <v>9.6</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="P17" s="25">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S17" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="T17" s="25">
+        <v>7.44</v>
+      </c>
+      <c r="U17" s="25">
+        <v>7.5</v>
+      </c>
+      <c r="V17" s="25">
+        <v>7.08</v>
+      </c>
+      <c r="W17" s="25">
+        <v>6.86</v>
+      </c>
+      <c r="X17" s="25">
+        <v>7.41</v>
+      </c>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB17" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC17" s="24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="25">
+        <v>12103021</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="26">
+        <v>34663</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="25">
+        <v>9501842223</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" s="25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="N18" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="P18" s="25">
+        <v>87.6</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="R18" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S18" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="T18" s="25">
+        <v>6.96</v>
+      </c>
+      <c r="U18" s="25">
+        <v>6</v>
+      </c>
+      <c r="V18" s="25">
+        <v>5.54</v>
+      </c>
+      <c r="W18" s="25">
+        <v>6.14</v>
+      </c>
+      <c r="X18" s="25">
+        <v>6.24</v>
+      </c>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA18" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB18" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC18" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B19" s="25">
+        <v>12103022</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="26">
+        <v>41862</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="25">
+        <v>9646028577</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" s="25">
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="P19" s="25">
+        <v>0.89</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="T19" s="25">
+        <v>5.12</v>
+      </c>
+      <c r="U19" s="25">
+        <v>7.6</v>
+      </c>
+      <c r="V19" s="25">
+        <v>6.62</v>
+      </c>
+      <c r="W19" s="25">
+        <v>7.86</v>
+      </c>
+      <c r="X19" s="25">
+        <v>6.97</v>
+      </c>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA19" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB19" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC19" s="24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B20" s="25">
+        <v>12103023</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="26">
+        <v>34786</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="25">
+        <v>8284993850</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="25">
+        <v>9.6</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="25">
+        <v>87.6</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="T20" s="25">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="U20" s="25">
+        <v>6.8</v>
+      </c>
+      <c r="V20" s="25">
+        <v>7.23</v>
+      </c>
+      <c r="W20" s="25">
+        <v>7.29</v>
+      </c>
+      <c r="X20" s="25">
+        <v>7.15</v>
+      </c>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB20" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC20" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="25" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="B21" s="25">
+        <v>12103024</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="26">
+        <v>34479</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="25">
+        <v>8591557992</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="25">
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" s="25">
+        <v>93.8</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="T21" s="25">
+        <v>6.32</v>
+      </c>
+      <c r="U21" s="25">
+        <v>6.8</v>
+      </c>
+      <c r="V21" s="25">
+        <v>5.54</v>
+      </c>
+      <c r="W21" s="25">
+        <v>7.28</v>
+      </c>
+      <c r="X21" s="25">
+        <v>6.71</v>
+      </c>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC21" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="25" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="B22" s="25">
+        <v>12103025</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="26">
+        <v>34326</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="25">
+        <v>919592106970</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" s="25">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="25">
+        <v>97.399999999999991</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="T22" s="25">
+        <v>10</v>
+      </c>
+      <c r="U22" s="25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="V22" s="25">
+        <v>9.23</v>
+      </c>
+      <c r="W22" s="25">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="X22" s="25">
+        <v>9.58</v>
+      </c>
+      <c r="Y22" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB22" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC22" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" s="25" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="B23" s="25">
+        <v>12103026</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="26">
+        <v>34793</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="25">
+        <v>7307169742</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="25">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="P23" s="25">
+        <v>87.8</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S23" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="T23" s="25">
+        <v>6.96</v>
+      </c>
+      <c r="U23" s="25">
+        <v>7.1</v>
+      </c>
+      <c r="V23" s="25">
+        <v>5.23</v>
+      </c>
+      <c r="W23" s="25">
+        <v>4.57</v>
+      </c>
+      <c r="X23" s="25">
+        <v>5.9</v>
+      </c>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB23" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC23" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" s="25">
+        <v>12103027</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="26">
+        <v>34339</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="25">
+        <v>8558010523</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" s="25">
+        <v>0.83</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="N24" s="25">
+        <v>2009</v>
+      </c>
+      <c r="O24" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="P24" s="25">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="R24" s="25">
+        <v>2011</v>
+      </c>
+      <c r="S24" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="T24" s="25">
+        <v>6.4</v>
+      </c>
+      <c r="U24" s="25">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="V24" s="25">
+        <v>6.77</v>
+      </c>
+      <c r="W24" s="25">
+        <v>7.86</v>
+      </c>
+      <c r="X24" s="25">
+        <v>7.58</v>
+      </c>
+      <c r="Y24" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z24" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA24" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB24" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC24" s="24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="B25" s="25">
+        <v>12103028</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="26">
+        <v>34413</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="25">
+        <v>9023255105</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="L25" s="25">
+        <v>89.6</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" s="25">
+        <v>2009</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="25">
+        <v>87.8</v>
+      </c>
+      <c r="Q25" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R25" s="25">
+        <v>2011</v>
+      </c>
+      <c r="S25" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="T25" s="25">
+        <v>6.32</v>
+      </c>
+      <c r="U25" s="25">
+        <v>6.4</v>
+      </c>
+      <c r="V25" s="25">
+        <v>6.31</v>
+      </c>
+      <c r="W25" s="25">
+        <v>7.86</v>
+      </c>
+      <c r="X25" s="25">
+        <v>6.79</v>
+      </c>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB25" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC25" s="24" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="25" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="B26" s="25">
+        <v>12103029</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="26">
+        <v>34222</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="25">
+        <v>919988917497</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="25">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="25">
+        <v>2009</v>
+      </c>
+      <c r="O26" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" s="25">
+        <v>89.399999999999991</v>
+      </c>
+      <c r="Q26" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="25">
+        <v>2011</v>
+      </c>
+      <c r="S26" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="T26" s="25">
+        <v>5.68</v>
+      </c>
+      <c r="U26" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="V26" s="25">
+        <v>5.69</v>
+      </c>
+      <c r="W26" s="25">
+        <v>6.43</v>
+      </c>
+      <c r="X26" s="25">
+        <v>6.3</v>
+      </c>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB26" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC26" s="27" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="25" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="B27" s="25">
+        <v>12103030</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="26">
+        <v>34657</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="25">
+        <v>9914106444</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="25">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N27" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O27" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="P27" s="25">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="Q27" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S27" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="T27" s="25">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="U27" s="25">
+        <v>8.6</v>
+      </c>
+      <c r="V27" s="25">
+        <v>7.85</v>
+      </c>
+      <c r="W27" s="25">
+        <v>8.43</v>
+      </c>
+      <c r="X27" s="25">
+        <v>8.42</v>
+      </c>
+      <c r="Y27" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB27" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC27" s="24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="B28" s="25">
+        <v>12103031</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="26">
+        <v>33932</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="25">
+        <v>8054570692</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" s="25">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" s="25">
+        <v>2009</v>
+      </c>
+      <c r="O28" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="P28" s="25">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="Q28" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="25">
+        <v>2011</v>
+      </c>
+      <c r="S28" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="T28" s="25">
+        <v>8.56</v>
+      </c>
+      <c r="U28" s="25">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="V28" s="25">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="W28" s="25">
+        <v>8.57</v>
+      </c>
+      <c r="X28" s="25">
+        <v>8.59</v>
+      </c>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB28" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC28" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="B29" s="25">
+        <v>12103032</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="26">
+        <v>34387</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="25">
+        <v>9781942330</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" s="25">
+        <v>10</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O29" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" s="25">
+        <v>96.2</v>
+      </c>
+      <c r="Q29" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R29" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S29" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="T29" s="25">
+        <v>9.68</v>
+      </c>
+      <c r="U29" s="25">
+        <v>9.6</v>
+      </c>
+      <c r="V29" s="25">
+        <v>10</v>
+      </c>
+      <c r="W29" s="25">
+        <v>10</v>
+      </c>
+      <c r="X29" s="25">
+        <v>9.84</v>
+      </c>
+      <c r="Y29" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z29" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA29" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB29" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC29" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="B30" s="25">
+        <v>12103033</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="26">
+        <v>34609</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="25">
+        <v>9855404018</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="25">
+        <v>10</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O30" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="P30" s="25">
+        <v>0.95800000000000007</v>
+      </c>
+      <c r="Q30" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S30" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="T30" s="25">
+        <v>8.64</v>
+      </c>
+      <c r="U30" s="25">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="V30" s="25">
+        <v>8</v>
+      </c>
+      <c r="W30" s="25">
+        <v>8.57</v>
+      </c>
+      <c r="X30" s="25">
+        <v>8.51</v>
+      </c>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB30" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC30" s="24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="B31" s="25">
+        <v>12103034</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="26">
+        <v>34364</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="25">
+        <v>8728887514</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" s="25">
+        <v>10</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O31" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="P31" s="25">
+        <v>88.4</v>
+      </c>
+      <c r="Q31" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R31" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S31" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="T31" s="25">
+        <v>6.08</v>
+      </c>
+      <c r="U31" s="25">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="V31" s="25">
+        <v>7.54</v>
+      </c>
+      <c r="W31" s="25">
+        <v>8.14</v>
+      </c>
+      <c r="X31" s="25">
+        <v>7.8</v>
+      </c>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB31" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC31" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="B32" s="25">
+        <v>12103035</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" s="26">
+        <v>34694</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="25">
+        <v>8054434734</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="25">
+        <v>9.6</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="P32" s="25">
+        <v>93</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R32" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S32" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="T32" s="25">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="U32" s="25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="V32" s="25">
+        <v>9.23</v>
+      </c>
+      <c r="W32" s="25">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="X32" s="25">
+        <v>9.25</v>
+      </c>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB32" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC32" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" s="25" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="B33" s="25">
+        <v>12103036</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="26">
+        <v>34614</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="25">
+        <v>9988091805</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="L33" s="25">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O33" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="P33" s="25">
+        <v>93.8</v>
+      </c>
+      <c r="Q33" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S33" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="T33" s="25">
+        <v>8.64</v>
+      </c>
+      <c r="U33" s="25">
+        <v>8.5</v>
+      </c>
+      <c r="V33" s="25">
+        <v>8.31</v>
+      </c>
+      <c r="W33" s="25">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="X33" s="25">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB33" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC33" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" s="25" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="B34" s="25">
+        <v>12103037</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="26">
+        <v>34760</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="25">
+        <v>8054618619</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" s="25">
+        <v>9.6</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="25">
+        <v>2010</v>
+      </c>
+      <c r="O34" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="P34" s="25">
+        <v>91.6</v>
+      </c>
+      <c r="Q34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R34" s="25">
+        <v>2012</v>
+      </c>
+      <c r="S34" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="T34" s="25">
+        <v>10</v>
+      </c>
+      <c r="U34" s="25">
+        <v>10</v>
+      </c>
+      <c r="V34" s="25">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="W34" s="25">
+        <v>10</v>
+      </c>
+      <c r="X34" s="25">
+        <v>9.84</v>
+      </c>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB34" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC34" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="RLoMWUSrdr+BaVyYc7GMlCBeilZFcswzyOezHlBGmY+mX1iubK48ImmjAhy6220XE/K1BjzaSgs8DXKjVzhhJg==" saltValue="HpdviYzFyhIoiPWRDuqgHQ==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="WorksheetGuid" r:id="rId2"/>
+  </customProperties>
+</worksheet>
 </file>
--- a/admin/CSE Database (Responses) (1).xlsx
+++ b/admin/CSE Database (Responses) (1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="425">
   <si>
     <t>Timestamp</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Yog Raj Yadav -9882471457</t>
   </si>
   <si>
-    <t>Sahil</t>
-  </si>
-  <si>
     <t>sahilsharma2107@gmail.com</t>
   </si>
   <si>
@@ -1289,6 +1286,15 @@
   </si>
   <si>
     <t>3841</t>
+  </si>
+  <si>
+    <t>Digvijay</t>
+  </si>
+  <si>
+    <t>Sushant Sharma</t>
+  </si>
+  <si>
+    <t>Esha Goel</t>
   </si>
 </sst>
 </file>
@@ -1966,7 +1972,7 @@
         <v>11103009</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D2" s="12">
         <v>34353</v>
@@ -1978,43 +1984,43 @@
         <v>8284869003</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="J2" s="11">
         <v>211569</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L2" s="11">
         <v>9.1199999999999992</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N2" s="11">
         <v>2009</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P2" s="11">
         <v>68.400000000000006</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R2" s="11">
         <v>2011</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T2" s="11">
         <v>4.6399999999999997</v>
@@ -2032,13 +2038,13 @@
         <v>5.47</v>
       </c>
       <c r="AA2" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB2" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AC2" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2049,7 +2055,7 @@
         <v>12103001</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D3" s="16">
         <v>34536</v>
@@ -2061,43 +2067,43 @@
         <v>9501619007</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="J3" s="15">
         <v>75514</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" s="15">
         <v>8.4</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N3" s="15">
         <v>2010</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P3" s="15">
         <v>0.84799999999999998</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R3" s="15">
         <v>2012</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T3" s="23">
         <v>3.52</v>
@@ -2115,16 +2121,16 @@
         <v>5.43</v>
       </c>
       <c r="Z3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AB3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AC3" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="AC3" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2222,7 +2228,7 @@
         <v>12103003</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D5" s="3">
         <v>34196</v>
@@ -2234,19 +2240,19 @@
         <v>9779222993</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="J5" s="4">
         <v>280000</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L5" s="4">
         <v>9</v>
@@ -2258,7 +2264,7 @@
         <v>2010</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P5" s="4">
         <v>80</v>
@@ -2270,7 +2276,7 @@
         <v>2012</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T5" s="4">
         <v>6</v>
@@ -2289,13 +2295,13 @@
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA5" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="AC5" s="4">
         <v>9815831304</v>
@@ -2309,7 +2315,7 @@
         <v>12103004</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="3">
         <v>34856</v>
@@ -2321,19 +2327,19 @@
         <v>8427044221</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="4">
         <v>873</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" s="4">
         <v>9.8000000000000007</v>
@@ -2345,7 +2351,7 @@
         <v>2010</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P6" s="4">
         <v>95.6</v>
@@ -2357,7 +2363,7 @@
         <v>2012</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T6" s="4">
         <v>10</v>
@@ -2379,7 +2385,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2390,43 +2396,43 @@
         <v>12103006</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" s="3">
         <v>34845</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="4">
         <v>9855561720</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J7" s="4">
         <v>2590</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L7" s="4">
         <v>0.94</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N7" s="4">
         <v>2010</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P7" s="4">
         <v>0.94199999999999995</v>
@@ -2438,7 +2444,7 @@
         <v>2012</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T7" s="4">
         <v>9.0399999999999991</v>
@@ -2456,16 +2462,16 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="Y7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA7" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="Z7" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AB7" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="AC7" s="4">
         <v>9855732720</v>
@@ -2479,7 +2485,7 @@
         <v>12103008</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" s="3">
         <v>34500</v>
@@ -2491,19 +2497,19 @@
         <v>9878936840</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="J8" s="4">
         <v>2701</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8" s="4">
         <v>9.4</v>
@@ -2515,7 +2521,7 @@
         <v>2010</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P8" s="4">
         <v>0.90600000000000003</v>
@@ -2527,7 +2533,7 @@
         <v>2012</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T8" s="4">
         <v>7.68</v>
@@ -2547,13 +2553,13 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:29" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2650,31 +2656,31 @@
         <v>12103011</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="3">
         <v>34315</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="4">
         <v>9855461691</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="J10" s="4">
         <v>2964</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="4">
         <v>0.93</v>
@@ -2686,7 +2692,7 @@
         <v>2009</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P10" s="4">
         <v>0.75</v>
@@ -2698,7 +2704,7 @@
         <v>2011</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T10" s="4">
         <v>9.36</v>
@@ -2718,10 +2724,10 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB10" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="AC10" s="4">
         <v>9878996748</v>
@@ -2735,7 +2741,7 @@
         <v>12103012</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="3">
         <v>34270</v>
@@ -2747,31 +2753,31 @@
         <v>8054926199</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="L11" s="4">
         <v>0.89570000000000005</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N11" s="4">
         <v>2010</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P11" s="4">
         <v>0.80600000000000005</v>
@@ -2783,7 +2789,7 @@
         <v>2012</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T11" s="4">
         <v>6</v>
@@ -2803,13 +2809,13 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AB11" s="4" t="s">
+      <c r="AC11" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2820,7 +2826,7 @@
         <v>12103013</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="3">
         <v>34476</v>
@@ -2832,19 +2838,19 @@
         <v>9417096708</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J12" s="4">
         <v>37667</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L12" s="4">
         <v>9.6</v>
@@ -2856,7 +2862,7 @@
         <v>2010</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P12" s="4">
         <v>0.86799999999999999</v>
@@ -2868,7 +2874,7 @@
         <v>2012</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T12" s="4">
         <v>7.36</v>
@@ -2887,16 +2893,16 @@
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA12" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AA12" s="4" t="s">
+      <c r="AB12" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AB12" s="4" t="s">
+      <c r="AC12" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2907,7 +2913,7 @@
         <v>12103014</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D13" s="19">
         <v>34183</v>
@@ -2919,43 +2925,43 @@
         <v>9041484458</v>
       </c>
       <c r="G13" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>265</v>
-      </c>
       <c r="I13" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J13" s="18">
         <v>41766</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L13" s="18">
         <v>0.79400000000000004</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N13" s="18">
         <v>2009</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P13" s="18">
         <v>0.82799999999999996</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R13" s="18">
         <v>2011</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T13" s="23">
         <v>2.8</v>
@@ -2973,16 +2979,16 @@
         <v>5.01</v>
       </c>
       <c r="Z13" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA13" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="AA13" s="18" t="s">
+      <c r="AB13" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="AB13" s="18" t="s">
+      <c r="AC13" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="AC13" s="18" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2993,31 +2999,31 @@
         <v>12103015</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="3">
         <v>34661</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" s="4">
         <v>9465465418</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="J14" s="4">
         <v>2796</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L14" s="4">
         <v>9.4</v>
@@ -3029,7 +3035,7 @@
         <v>2010</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P14" s="4">
         <v>92.2</v>
@@ -3041,7 +3047,7 @@
         <v>2012</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T14" s="4">
         <v>8.7200000000000006</v>
@@ -3061,13 +3067,13 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB14" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="AB14" s="4" t="s">
+      <c r="AC14" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3078,7 +3084,7 @@
         <v>12103017</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D15" s="3">
         <v>34715</v>
@@ -3090,19 +3096,19 @@
         <v>8591417630</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J15" s="4">
         <v>69448</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L15" s="4">
         <v>9.1999999999999993</v>
@@ -3114,7 +3120,7 @@
         <v>2010</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P15" s="4">
         <v>88.6</v>
@@ -3126,7 +3132,7 @@
         <v>2012</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T15" s="23">
         <v>4.72</v>
@@ -3146,13 +3152,13 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB15" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="AB15" s="4" t="s">
+      <c r="AC15" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3163,7 +3169,7 @@
         <v>12103019</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="3">
         <v>34554</v>
@@ -3175,19 +3181,19 @@
         <v>9646657592</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="L16" s="4">
         <v>9.4</v>
@@ -3199,7 +3205,7 @@
         <v>2010</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P16" s="4">
         <v>90.6</v>
@@ -3211,7 +3217,7 @@
         <v>2012</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T16" s="4">
         <v>6.4</v>
@@ -3231,13 +3237,13 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB16" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AC16" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3248,55 +3254,55 @@
         <v>12103020</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D17" s="3">
         <v>34590</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17" s="4">
         <v>9023909198</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="L17" s="4">
         <v>9.6</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N17" s="4">
         <v>2010</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P17" s="4">
         <v>0.86</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R17" s="4">
         <v>2012</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T17" s="4">
         <v>7.44</v>
@@ -3316,13 +3322,13 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB17" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="AB17" s="4" t="s">
+      <c r="AC17" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3333,7 +3339,7 @@
         <v>12103021</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D18" s="3">
         <v>34663</v>
@@ -3345,19 +3351,19 @@
         <v>9501842223</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="I18" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J18" s="4">
         <v>0</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L18" s="4">
         <v>9.1999999999999993</v>
@@ -3369,7 +3375,7 @@
         <v>2010</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P18" s="4">
         <v>87.6</v>
@@ -3381,7 +3387,7 @@
         <v>2012</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T18" s="4">
         <v>6.96</v>
@@ -3400,16 +3406,16 @@
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA18" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="AA18" s="4" t="s">
+      <c r="AB18" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="AB18" s="4" t="s">
+      <c r="AC18" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3420,55 +3426,55 @@
         <v>12103022</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D19" s="3">
         <v>41862</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="4">
         <v>9646028577</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="J19" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L19" s="4">
         <v>9.4</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N19" s="4">
         <v>2010</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P19" s="4">
         <v>0.89</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R19" s="4">
         <v>2012</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T19" s="23">
         <v>5.12</v>
@@ -3487,16 +3493,16 @@
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA19" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB19" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="AB19" s="4" t="s">
+      <c r="AC19" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3507,7 +3513,7 @@
         <v>12103023</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="3">
         <v>34786</v>
@@ -3519,31 +3525,31 @@
         <v>8284993850</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J20" s="4">
         <v>1901</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L20" s="4">
         <v>9.6</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N20" s="4">
         <v>2010</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P20" s="4">
         <v>87.6</v>
@@ -3555,7 +3561,7 @@
         <v>2012</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T20" s="4">
         <v>8.9600000000000009</v>
@@ -3575,13 +3581,13 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB20" s="4" t="s">
+      <c r="AC20" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3592,7 +3598,7 @@
         <v>12103024</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="3">
         <v>34479</v>
@@ -3604,19 +3610,19 @@
         <v>8591557992</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="J21" s="4">
         <v>3264</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L21" s="4">
         <v>9.4</v>
@@ -3628,7 +3634,7 @@
         <v>2010</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P21" s="4">
         <v>93.8</v>
@@ -3640,7 +3646,7 @@
         <v>2012</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T21" s="4">
         <v>6.32</v>
@@ -3660,13 +3666,13 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AB21" s="4" t="s">
+      <c r="AC21" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="AC21" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3677,7 +3683,7 @@
         <v>12103025</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D22" s="3">
         <v>34326</v>
@@ -3689,19 +3695,19 @@
         <v>919592106970</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="J22" s="4">
         <v>2612</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L22" s="4">
         <v>9.8000000000000007</v>
@@ -3713,7 +3719,7 @@
         <v>2010</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P22" s="4">
         <v>97.4</v>
@@ -3725,7 +3731,7 @@
         <v>2012</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T22" s="4">
         <v>10</v>
@@ -3743,17 +3749,17 @@
         <v>9.58</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB22" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AB22" s="4" t="s">
+      <c r="AC22" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3764,7 +3770,7 @@
         <v>12103026</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D23" s="3">
         <v>34793</v>
@@ -3776,19 +3782,19 @@
         <v>7307169742</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>301</v>
-      </c>
       <c r="I23" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J23" s="4">
         <v>3009</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L23" s="4">
         <v>9.8000000000000007</v>
@@ -3800,7 +3806,7 @@
         <v>2010</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P23" s="4">
         <v>87.8</v>
@@ -3812,7 +3818,7 @@
         <v>2012</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T23" s="4">
         <v>6.96</v>
@@ -3832,24 +3838,24 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB23" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AB23" s="4" t="s">
+      <c r="AC23" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B24" s="5">
         <v>12103027</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D24" s="7">
         <v>34339</v>
@@ -3861,43 +3867,43 @@
         <v>8558010523</v>
       </c>
       <c r="G24" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="I24" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J24" s="5">
         <v>44524</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L24" s="8">
         <v>0.83</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N24" s="5">
         <v>2009</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P24" s="9">
         <v>0.77100000000000002</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R24" s="5">
         <v>2011</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T24" s="5">
         <v>6.4</v>
@@ -3915,19 +3921,19 @@
         <v>7.58</v>
       </c>
       <c r="Y24" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA24" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="Z24" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA24" s="6" t="s">
+      <c r="AB24" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AB24" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="AC24" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3938,7 +3944,7 @@
         <v>12103028</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="3">
         <v>34413</v>
@@ -3950,43 +3956,43 @@
         <v>9023255105</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="J25" s="4">
         <v>3095</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L25" s="4">
         <v>89.6</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N25" s="4">
         <v>2009</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P25" s="4">
         <v>87.8</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R25" s="4">
         <v>2011</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T25" s="4">
         <v>6.32</v>
@@ -4006,10 +4012,10 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB25" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="AB25" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="AC25" s="4">
         <v>9023255105</v>
@@ -4023,7 +4029,7 @@
         <v>12103029</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="3">
         <v>34222</v>
@@ -4035,19 +4041,19 @@
         <v>919988917497</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="I26" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J26" s="4">
         <v>2892</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L26" s="4">
         <v>8.8800000000000008</v>
@@ -4059,7 +4065,7 @@
         <v>2009</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P26" s="4">
         <v>89.4</v>
@@ -4071,7 +4077,7 @@
         <v>2011</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T26" s="4">
         <v>5.68</v>
@@ -4091,13 +4097,13 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AB26" s="4" t="s">
+      <c r="AC26" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="AC26" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4108,7 +4114,7 @@
         <v>12103030</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D27" s="3">
         <v>34657</v>
@@ -4120,31 +4126,31 @@
         <v>9914106444</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="I27" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J27" s="4">
         <v>2934</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L27" s="4">
         <v>0.89600000000000002</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N27" s="4">
         <v>2010</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P27" s="4">
         <v>0.88800000000000001</v>
@@ -4156,7 +4162,7 @@
         <v>2012</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T27" s="4">
         <v>8.7200000000000006</v>
@@ -4174,17 +4180,17 @@
         <v>8.42</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB27" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AB27" s="4" t="s">
+      <c r="AC27" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="AC27" s="4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4195,7 +4201,7 @@
         <v>12103031</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="3">
         <v>33932</v>
@@ -4207,19 +4213,19 @@
         <v>8054570692</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="I28" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J28" s="4">
         <v>3118</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L28" s="4">
         <v>0.91800000000000004</v>
@@ -4231,7 +4237,7 @@
         <v>2009</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P28" s="4">
         <v>0.88600000000000001</v>
@@ -4243,7 +4249,7 @@
         <v>2011</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T28" s="4">
         <v>8.56</v>
@@ -4263,13 +4269,13 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB28" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AB28" s="4" t="s">
+      <c r="AC28" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="AC28" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4280,7 +4286,7 @@
         <v>12103032</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="3">
         <v>34387</v>
@@ -4292,19 +4298,19 @@
         <v>9781942330</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="I29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J29" s="4">
         <v>3176</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L29" s="4">
         <v>10</v>
@@ -4316,7 +4322,7 @@
         <v>2010</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P29" s="4">
         <v>96.2</v>
@@ -4328,7 +4334,7 @@
         <v>2012</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T29" s="4">
         <v>9.68</v>
@@ -4346,19 +4352,19 @@
         <v>9.84</v>
       </c>
       <c r="Y29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Z29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA29" s="4" t="s">
+      <c r="AB29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AB29" s="4" t="s">
+      <c r="AC29" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="AC29" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4369,7 +4375,7 @@
         <v>12103033</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D30" s="3">
         <v>34609</v>
@@ -4381,19 +4387,19 @@
         <v>9855404018</v>
       </c>
       <c r="G30" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="I30" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J30" s="4">
         <v>3329</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L30" s="4">
         <v>10</v>
@@ -4405,7 +4411,7 @@
         <v>2010</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P30" s="4">
         <v>0.95799999999999996</v>
@@ -4417,7 +4423,7 @@
         <v>2012</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T30" s="4">
         <v>8.64</v>
@@ -4437,13 +4443,13 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB30" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="AB30" s="4" t="s">
+      <c r="AC30" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="AC30" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4454,31 +4460,31 @@
         <v>12103034</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D31" s="3">
         <v>34364</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F31" s="4">
         <v>8728887514</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="I31" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J31" s="4">
         <v>3242</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="4">
         <v>10</v>
@@ -4490,7 +4496,7 @@
         <v>2010</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P31" s="4">
         <v>88.4</v>
@@ -4502,7 +4508,7 @@
         <v>2012</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T31" s="23">
         <v>6.08</v>
@@ -4522,13 +4528,13 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB31" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AB31" s="4" t="s">
+      <c r="AC31" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="AC31" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4539,55 +4545,55 @@
         <v>12103035</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D32" s="3">
         <v>34694</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F32" s="4">
         <v>8054434734</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="J32" s="4">
         <v>3414</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L32" s="4">
         <v>9.6</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N32" s="4">
         <v>2010</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P32" s="4">
         <v>93</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R32" s="4">
         <v>2012</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T32" s="4">
         <v>8.7200000000000006</v>
@@ -4607,13 +4613,13 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB32" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AB32" s="4" t="s">
+      <c r="AC32" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="AC32" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4624,7 +4630,7 @@
         <v>12103036</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="3">
         <v>34614</v>
@@ -4636,19 +4642,19 @@
         <v>9988091805</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="J33" s="4">
         <v>3769</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L33" s="4">
         <v>9.8000000000000007</v>
@@ -4660,7 +4666,7 @@
         <v>2010</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P33" s="4">
         <v>93.8</v>
@@ -4672,7 +4678,7 @@
         <v>2012</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T33" s="4">
         <v>8.64</v>
@@ -4692,13 +4698,13 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB33" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="AB33" s="4" t="s">
+      <c r="AC33" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="AC33" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4709,31 +4715,31 @@
         <v>12103037</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" s="3">
         <v>34760</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34" s="4">
         <v>8054618619</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="J34" s="4">
         <v>3841</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L34" s="4">
         <v>9.6</v>
@@ -4745,7 +4751,7 @@
         <v>2010</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P34" s="4">
         <v>91.6</v>
@@ -4757,7 +4763,7 @@
         <v>2012</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T34" s="4">
         <v>10</v>
@@ -4777,13 +4783,13 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB34" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AB34" s="4" t="s">
+      <c r="AC34" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="AC34" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4799,8 +4805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4830,93 +4836,93 @@
         <v>2</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>333</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>334</v>
       </c>
       <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="M1" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="N1" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="O1" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="P1" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="Q1" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="R1" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="S1" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="T1" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="U1" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="V1" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="W1" s="30" t="s">
         <v>345</v>
-      </c>
-      <c r="W1" s="30" t="s">
-        <v>346</v>
       </c>
       <c r="X1" s="30" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z1" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="AA1" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AB1" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AC1" s="29" t="s">
         <v>350</v>
-      </c>
-      <c r="AC1" s="29" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B2" s="25">
         <v>11103009</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>252</v>
+        <v>422</v>
       </c>
       <c r="D2" s="26">
         <v>34353</v>
@@ -4928,43 +4934,43 @@
         <v>8284869003</v>
       </c>
       <c r="G2" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>255</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>256</v>
       </c>
       <c r="L2" s="25">
         <v>9.120000000000001</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N2" s="25">
         <v>2009</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P2" s="25">
         <v>68.399999999999991</v>
       </c>
       <c r="Q2" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R2" s="25">
         <v>2011</v>
       </c>
       <c r="S2" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T2" s="25">
         <v>4.6399999999999997</v>
@@ -4984,24 +4990,24 @@
       <c r="Y2" s="24"/>
       <c r="Z2" s="24"/>
       <c r="AA2" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB2" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AC2" s="24" t="s">
         <v>261</v>
-      </c>
-      <c r="AC2" s="24" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B3" s="25">
         <v>12103001</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>50</v>
+        <v>327</v>
       </c>
       <c r="D3" s="26">
         <v>34536</v>
@@ -5013,43 +5019,43 @@
         <v>9501619007</v>
       </c>
       <c r="G3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="I3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="J3" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="K3" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>54</v>
       </c>
       <c r="L3" s="25">
         <v>8.4</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N3" s="25">
         <v>2010</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P3" s="25">
         <v>0.84799999999999998</v>
       </c>
       <c r="Q3" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R3" s="25">
         <v>2012</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T3" s="25">
         <v>3.52</v>
@@ -5068,27 +5074,27 @@
       </c>
       <c r="Y3" s="24"/>
       <c r="Z3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="24" t="s">
+      <c r="AB3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="24" t="s">
+      <c r="AC3" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="AC3" s="24" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="25" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B4" s="25">
         <v>12103002</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>29</v>
+        <v>423</v>
       </c>
       <c r="D4" s="26">
         <v>34488</v>
@@ -5109,7 +5115,7 @@
         <v>32</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>33</v>
@@ -5169,13 +5175,13 @@
     </row>
     <row r="5" spans="1:29" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B5" s="25">
         <v>12103003</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D5" s="26">
         <v>34196</v>
@@ -5187,43 +5193,43 @@
         <v>9779222993</v>
       </c>
       <c r="G5" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="I5" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="J5" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="K5" s="24" t="s">
         <v>284</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>285</v>
       </c>
       <c r="L5" s="25">
         <v>9</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N5" s="25">
         <v>2010</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P5" s="25">
         <v>80</v>
       </c>
       <c r="Q5" s="24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R5" s="25">
         <v>2012</v>
       </c>
       <c r="S5" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T5" s="25">
         <v>6</v>
@@ -5242,27 +5248,27 @@
       </c>
       <c r="Y5" s="24"/>
       <c r="Z5" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA5" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="AA5" s="24" t="s">
+      <c r="AB5" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AB5" s="24" t="s">
-        <v>289</v>
-      </c>
       <c r="AC5" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B6" s="25">
         <v>12103004</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="26">
         <v>34856</v>
@@ -5274,19 +5280,19 @@
         <v>8427044221</v>
       </c>
       <c r="G6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="I6" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="K6" s="24" t="s">
         <v>63</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>64</v>
       </c>
       <c r="L6" s="25">
         <v>9.8000000000000007</v>
@@ -5298,7 +5304,7 @@
         <v>2010</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P6" s="25">
         <v>95.6</v>
@@ -5310,7 +5316,7 @@
         <v>2012</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T6" s="25">
         <v>10</v>
@@ -5332,54 +5338,54 @@
       <c r="AA6" s="24"/>
       <c r="AB6" s="24"/>
       <c r="AC6" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:29" s="25" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B7" s="25">
         <v>12103006</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="D7" s="26">
         <v>34845</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="25">
         <v>9855561720</v>
       </c>
       <c r="G7" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>186</v>
-      </c>
       <c r="I7" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L7" s="25">
         <v>0.94</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N7" s="25">
         <v>2010</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P7" s="25">
         <v>0.94200000000000006</v>
@@ -5391,7 +5397,7 @@
         <v>2012</v>
       </c>
       <c r="S7" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T7" s="25">
         <v>9.0399999999999991</v>
@@ -5409,30 +5415,30 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="Y7" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z7" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA7" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="Z7" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA7" s="24" t="s">
+      <c r="AB7" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AB7" s="24" t="s">
-        <v>191</v>
-      </c>
       <c r="AC7" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="25" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B8" s="25">
         <v>12103008</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" s="26">
         <v>34500</v>
@@ -5444,19 +5450,19 @@
         <v>9878936840</v>
       </c>
       <c r="G8" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>231</v>
-      </c>
       <c r="J8" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8" s="25">
         <v>9.3999999999999986</v>
@@ -5468,7 +5474,7 @@
         <v>2010</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P8" s="25">
         <v>0.90600000000000003</v>
@@ -5480,7 +5486,7 @@
         <v>2012</v>
       </c>
       <c r="S8" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T8" s="25">
         <v>7.68</v>
@@ -5500,18 +5506,18 @@
       <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
       <c r="AA8" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB8" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="AB8" s="24" t="s">
+      <c r="AC8" s="24" t="s">
         <v>234</v>
-      </c>
-      <c r="AC8" s="24" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:29" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B9" s="25">
         <v>12103009</v>
@@ -5538,7 +5544,7 @@
         <v>42</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>43</v>
@@ -5598,37 +5604,37 @@
     </row>
     <row r="10" spans="1:29" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B10" s="25">
         <v>12103011</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="26">
         <v>34315</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="25">
         <v>9855461691</v>
       </c>
       <c r="G10" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="I10" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>134</v>
-      </c>
       <c r="J10" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="25">
         <v>0.93</v>
@@ -5640,7 +5646,7 @@
         <v>2009</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P10" s="25">
         <v>0.75</v>
@@ -5652,7 +5658,7 @@
         <v>2011</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T10" s="25">
         <v>9.36</v>
@@ -5672,24 +5678,24 @@
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
       <c r="AA10" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB10" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AB10" s="24" t="s">
-        <v>138</v>
-      </c>
       <c r="AC10" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B11" s="25">
         <v>12103012</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="26">
         <v>34270</v>
@@ -5701,31 +5707,31 @@
         <v>8054926199</v>
       </c>
       <c r="G11" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="I11" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="24" t="s">
+      <c r="K11" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>107</v>
       </c>
       <c r="L11" s="25">
         <v>0.89570000000000005</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N11" s="25">
         <v>2010</v>
       </c>
       <c r="O11" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P11" s="25">
         <v>0.80600000000000005</v>
@@ -5737,7 +5743,7 @@
         <v>2012</v>
       </c>
       <c r="S11" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T11" s="25">
         <v>6</v>
@@ -5757,24 +5763,24 @@
       <c r="Y11" s="24"/>
       <c r="Z11" s="24"/>
       <c r="AA11" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB11" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="AB11" s="24" t="s">
+      <c r="AC11" s="24" t="s">
         <v>112</v>
-      </c>
-      <c r="AC11" s="24" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:29" s="25" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B12" s="25">
         <v>12103013</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="26">
         <v>34476</v>
@@ -5786,19 +5792,19 @@
         <v>9417096708</v>
       </c>
       <c r="G12" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="I12" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>150</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>151</v>
       </c>
       <c r="L12" s="25">
         <v>9.6</v>
@@ -5810,7 +5816,7 @@
         <v>2010</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P12" s="25">
         <v>0.86799999999999999</v>
@@ -5822,7 +5828,7 @@
         <v>2012</v>
       </c>
       <c r="S12" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T12" s="25">
         <v>7.36</v>
@@ -5841,27 +5847,27 @@
       </c>
       <c r="Y12" s="24"/>
       <c r="Z12" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="AA12" s="24" t="s">
+      <c r="AB12" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="AB12" s="24" t="s">
+      <c r="AC12" s="24" t="s">
         <v>155</v>
-      </c>
-      <c r="AC12" s="24" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="25" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B13" s="25">
         <v>12103014</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D13" s="26">
         <v>34183</v>
@@ -5873,43 +5879,43 @@
         <v>9041484458</v>
       </c>
       <c r="G13" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="H13" s="24" t="s">
-        <v>265</v>
-      </c>
       <c r="I13" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L13" s="25">
         <v>0.79400000000000004</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N13" s="25">
         <v>2009</v>
       </c>
       <c r="O13" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P13" s="25">
         <v>0.82800000000000007</v>
       </c>
       <c r="Q13" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R13" s="25">
         <v>2011</v>
       </c>
       <c r="S13" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T13" s="25">
         <v>2.8</v>
@@ -5928,51 +5934,51 @@
       </c>
       <c r="Y13" s="24"/>
       <c r="Z13" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA13" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="AA13" s="24" t="s">
+      <c r="AB13" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="AB13" s="24" t="s">
+      <c r="AC13" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="AC13" s="24" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="25" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B14" s="25">
         <v>12103015</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="26">
         <v>34661</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" s="25">
         <v>9465465418</v>
       </c>
       <c r="G14" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="I14" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="I14" s="24" t="s">
-        <v>214</v>
-      </c>
       <c r="J14" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L14" s="25">
         <v>9.3999999999999986</v>
@@ -5984,7 +5990,7 @@
         <v>2010</v>
       </c>
       <c r="O14" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P14" s="25">
         <v>92.199999999999989</v>
@@ -5996,7 +6002,7 @@
         <v>2012</v>
       </c>
       <c r="S14" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T14" s="25">
         <v>8.7200000000000006</v>
@@ -6016,24 +6022,24 @@
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB14" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="AB14" s="24" t="s">
+      <c r="AC14" s="24" t="s">
         <v>218</v>
-      </c>
-      <c r="AC14" s="24" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:29" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B15" s="25">
         <v>12103017</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D15" s="26">
         <v>34715</v>
@@ -6045,19 +6051,19 @@
         <v>8591417630</v>
       </c>
       <c r="G15" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="I15" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="K15" s="24" t="s">
         <v>309</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>310</v>
       </c>
       <c r="L15" s="25">
         <v>9.1999999999999993</v>
@@ -6069,7 +6075,7 @@
         <v>2010</v>
       </c>
       <c r="O15" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P15" s="25">
         <v>88.6</v>
@@ -6081,7 +6087,7 @@
         <v>2012</v>
       </c>
       <c r="S15" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T15" s="25">
         <v>4.72</v>
@@ -6101,24 +6107,24 @@
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
       <c r="AA15" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB15" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="AB15" s="24" t="s">
-        <v>314</v>
-      </c>
       <c r="AC15" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="25" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B16" s="25">
         <v>12103019</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="26">
         <v>34554</v>
@@ -6130,19 +6136,19 @@
         <v>9646657592</v>
       </c>
       <c r="G16" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="I16" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="J16" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="K16" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>162</v>
       </c>
       <c r="L16" s="25">
         <v>9.3999999999999986</v>
@@ -6154,7 +6160,7 @@
         <v>2010</v>
       </c>
       <c r="O16" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P16" s="25">
         <v>90.6</v>
@@ -6166,7 +6172,7 @@
         <v>2012</v>
       </c>
       <c r="S16" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T16" s="25">
         <v>6.4</v>
@@ -6186,72 +6192,72 @@
       <c r="Y16" s="24"/>
       <c r="Z16" s="24"/>
       <c r="AA16" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB16" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="AB16" s="24" t="s">
+      <c r="AC16" s="24" t="s">
         <v>166</v>
-      </c>
-      <c r="AC16" s="24" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="25" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B17" s="25">
         <v>12103020</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D17" s="26">
         <v>34590</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17" s="25">
         <v>9023909198</v>
       </c>
       <c r="G17" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="I17" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="J17" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="K17" s="24" t="s">
         <v>320</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>321</v>
       </c>
       <c r="L17" s="25">
         <v>9.6</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N17" s="25">
         <v>2010</v>
       </c>
       <c r="O17" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P17" s="25">
         <v>0.8600000000000001</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R17" s="25">
         <v>2012</v>
       </c>
       <c r="S17" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T17" s="25">
         <v>7.44</v>
@@ -6271,24 +6277,24 @@
       <c r="Y17" s="24"/>
       <c r="Z17" s="24"/>
       <c r="AA17" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB17" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="AB17" s="24" t="s">
+      <c r="AC17" s="24" t="s">
         <v>324</v>
-      </c>
-      <c r="AC17" s="24" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:29" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B18" s="25">
         <v>12103021</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D18" s="26">
         <v>34663</v>
@@ -6300,43 +6306,43 @@
         <v>9501842223</v>
       </c>
       <c r="G18" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H18" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>204</v>
-      </c>
       <c r="I18" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L18" s="25">
         <v>9.1999999999999993</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N18" s="25">
         <v>2010</v>
       </c>
       <c r="O18" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P18" s="25">
         <v>87.6</v>
       </c>
       <c r="Q18" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R18" s="25">
         <v>2012</v>
       </c>
       <c r="S18" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T18" s="25">
         <v>6.96</v>
@@ -6355,75 +6361,75 @@
       </c>
       <c r="Y18" s="24"/>
       <c r="Z18" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA18" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="AA18" s="24" t="s">
+      <c r="AB18" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="AB18" s="24" t="s">
+      <c r="AC18" s="24" t="s">
         <v>209</v>
-      </c>
-      <c r="AC18" s="24" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B19" s="25">
         <v>12103022</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D19" s="26">
         <v>41862</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="25">
         <v>9646028577</v>
       </c>
       <c r="G19" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="H19" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="I19" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="I19" s="24" t="s">
-        <v>293</v>
-      </c>
       <c r="J19" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L19" s="25">
         <v>9.3999999999999986</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N19" s="25">
         <v>2010</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P19" s="25">
         <v>0.89</v>
       </c>
       <c r="Q19" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R19" s="25">
         <v>2012</v>
       </c>
       <c r="S19" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T19" s="25">
         <v>5.12</v>
@@ -6442,27 +6448,27 @@
       </c>
       <c r="Y19" s="24"/>
       <c r="Z19" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA19" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB19" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="AB19" s="24" t="s">
+      <c r="AC19" s="24" t="s">
         <v>297</v>
-      </c>
-      <c r="AC19" s="24" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B20" s="25">
         <v>12103023</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="26">
         <v>34786</v>
@@ -6474,31 +6480,31 @@
         <v>8284993850</v>
       </c>
       <c r="G20" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="I20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="K20" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>70</v>
       </c>
       <c r="L20" s="25">
         <v>9.6</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N20" s="25">
         <v>2010</v>
       </c>
       <c r="O20" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P20" s="25">
         <v>87.6</v>
@@ -6510,7 +6516,7 @@
         <v>2012</v>
       </c>
       <c r="S20" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T20" s="25">
         <v>8.9600000000000009</v>
@@ -6530,24 +6536,24 @@
       <c r="Y20" s="24"/>
       <c r="Z20" s="24"/>
       <c r="AA20" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB20" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AB20" s="24" t="s">
+      <c r="AC20" s="24" t="s">
         <v>75</v>
-      </c>
-      <c r="AC20" s="24" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="25" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B21" s="25">
         <v>12103024</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="26">
         <v>34479</v>
@@ -6559,19 +6565,19 @@
         <v>8591557992</v>
       </c>
       <c r="G21" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="I21" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="24" t="s">
-        <v>97</v>
-      </c>
       <c r="J21" s="24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L21" s="25">
         <v>9.3999999999999986</v>
@@ -6583,7 +6589,7 @@
         <v>2010</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P21" s="25">
         <v>93.8</v>
@@ -6595,7 +6601,7 @@
         <v>2012</v>
       </c>
       <c r="S21" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T21" s="25">
         <v>6.32</v>
@@ -6615,24 +6621,24 @@
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
       <c r="AA21" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB21" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="AB21" s="24" t="s">
+      <c r="AC21" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="AC21" s="24" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="25" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B22" s="25">
         <v>12103025</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D22" s="26">
         <v>34326</v>
@@ -6644,19 +6650,19 @@
         <v>919592106970</v>
       </c>
       <c r="G22" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="H22" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="I22" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="I22" s="24" t="s">
-        <v>223</v>
-      </c>
       <c r="J22" s="24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L22" s="25">
         <v>9.8000000000000007</v>
@@ -6668,7 +6674,7 @@
         <v>2010</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P22" s="25">
         <v>97.399999999999991</v>
@@ -6680,7 +6686,7 @@
         <v>2012</v>
       </c>
       <c r="S22" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T22" s="25">
         <v>10</v>
@@ -6698,28 +6704,28 @@
         <v>9.58</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Z22" s="24"/>
       <c r="AA22" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB22" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="AB22" s="24" t="s">
+      <c r="AC22" s="24" t="s">
         <v>226</v>
-      </c>
-      <c r="AC22" s="24" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="25" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B23" s="25">
         <v>12103026</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D23" s="26">
         <v>34793</v>
@@ -6731,19 +6737,19 @@
         <v>7307169742</v>
       </c>
       <c r="G23" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="H23" s="24" t="s">
-        <v>301</v>
-      </c>
       <c r="I23" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L23" s="25">
         <v>9.8000000000000007</v>
@@ -6755,7 +6761,7 @@
         <v>2010</v>
       </c>
       <c r="O23" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P23" s="25">
         <v>87.8</v>
@@ -6767,7 +6773,7 @@
         <v>2012</v>
       </c>
       <c r="S23" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T23" s="25">
         <v>6.96</v>
@@ -6787,24 +6793,24 @@
       <c r="Y23" s="24"/>
       <c r="Z23" s="24"/>
       <c r="AA23" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB23" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="AB23" s="24" t="s">
+      <c r="AC23" s="24" t="s">
         <v>305</v>
-      </c>
-      <c r="AC23" s="24" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B24" s="25">
         <v>12103027</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D24" s="26">
         <v>34339</v>
@@ -6816,43 +6822,43 @@
         <v>8558010523</v>
       </c>
       <c r="G24" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="I24" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="K24" s="24" t="s">
         <v>194</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>195</v>
       </c>
       <c r="L24" s="25">
         <v>0.83</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N24" s="25">
         <v>2009</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P24" s="25">
         <v>0.77100000000000002</v>
       </c>
       <c r="Q24" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R24" s="25">
         <v>2011</v>
       </c>
       <c r="S24" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T24" s="25">
         <v>6.4</v>
@@ -6870,30 +6876,30 @@
         <v>7.58</v>
       </c>
       <c r="Y24" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z24" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA24" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="Z24" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA24" s="24" t="s">
+      <c r="AB24" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="AB24" s="24" t="s">
-        <v>201</v>
-      </c>
       <c r="AC24" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B25" s="25">
         <v>12103028</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="26">
         <v>34413</v>
@@ -6905,43 +6911,43 @@
         <v>9023255105</v>
       </c>
       <c r="G25" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="I25" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="I25" s="24" t="s">
-        <v>142</v>
-      </c>
       <c r="J25" s="24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L25" s="25">
         <v>89.6</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N25" s="25">
         <v>2009</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P25" s="25">
         <v>87.8</v>
       </c>
       <c r="Q25" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R25" s="25">
         <v>2011</v>
       </c>
       <c r="S25" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T25" s="25">
         <v>6.32</v>
@@ -6961,24 +6967,24 @@
       <c r="Y25" s="24"/>
       <c r="Z25" s="24"/>
       <c r="AA25" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB25" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="AB25" s="24" t="s">
-        <v>147</v>
-      </c>
       <c r="AC25" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:29" s="25" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B26" s="25">
         <v>12103029</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="26">
         <v>34222</v>
@@ -6990,19 +6996,19 @@
         <v>919988917497</v>
       </c>
       <c r="G26" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="24" t="s">
-        <v>79</v>
-      </c>
       <c r="I26" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L26" s="25">
         <v>8.8800000000000008</v>
@@ -7014,7 +7020,7 @@
         <v>2009</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P26" s="25">
         <v>89.399999999999991</v>
@@ -7026,7 +7032,7 @@
         <v>2011</v>
       </c>
       <c r="S26" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T26" s="25">
         <v>5.68</v>
@@ -7046,24 +7052,24 @@
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB26" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="AB26" s="24" t="s">
-        <v>83</v>
-      </c>
       <c r="AC26" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:29" s="25" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B27" s="25">
         <v>12103030</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D27" s="26">
         <v>34657</v>
@@ -7075,31 +7081,31 @@
         <v>9914106444</v>
       </c>
       <c r="G27" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="H27" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="H27" s="24" t="s">
-        <v>238</v>
-      </c>
       <c r="I27" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L27" s="25">
         <v>0.89600000000000002</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N27" s="25">
         <v>2010</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P27" s="25">
         <v>0.88800000000000001</v>
@@ -7111,7 +7117,7 @@
         <v>2012</v>
       </c>
       <c r="S27" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T27" s="25">
         <v>8.7200000000000006</v>
@@ -7129,28 +7135,28 @@
         <v>8.42</v>
       </c>
       <c r="Y27" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z27" s="24"/>
       <c r="AA27" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB27" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="AB27" s="24" t="s">
+      <c r="AC27" s="24" t="s">
         <v>243</v>
-      </c>
-      <c r="AC27" s="24" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:29" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B28" s="25">
         <v>12103031</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="26">
         <v>33932</v>
@@ -7162,19 +7168,19 @@
         <v>8054570692</v>
       </c>
       <c r="G28" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="24" t="s">
-        <v>126</v>
-      </c>
       <c r="I28" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L28" s="25">
         <v>0.91800000000000004</v>
@@ -7186,7 +7192,7 @@
         <v>2009</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P28" s="25">
         <v>0.88600000000000001</v>
@@ -7198,7 +7204,7 @@
         <v>2011</v>
       </c>
       <c r="S28" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T28" s="25">
         <v>8.56</v>
@@ -7218,24 +7224,24 @@
       <c r="Y28" s="24"/>
       <c r="Z28" s="24"/>
       <c r="AA28" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB28" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="AB28" s="24" t="s">
+      <c r="AC28" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AC28" s="24" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:29" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B29" s="25">
         <v>12103032</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="26">
         <v>34387</v>
@@ -7247,19 +7253,19 @@
         <v>9781942330</v>
       </c>
       <c r="G29" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="I29" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="K29" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>88</v>
       </c>
       <c r="L29" s="25">
         <v>10</v>
@@ -7271,7 +7277,7 @@
         <v>2010</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P29" s="25">
         <v>96.2</v>
@@ -7283,7 +7289,7 @@
         <v>2012</v>
       </c>
       <c r="S29" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T29" s="25">
         <v>9.68</v>
@@ -7301,30 +7307,30 @@
         <v>9.84</v>
       </c>
       <c r="Y29" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z29" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA29" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="Z29" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA29" s="24" t="s">
+      <c r="AB29" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AB29" s="24" t="s">
+      <c r="AC29" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="AC29" s="24" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:29" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B30" s="25">
         <v>12103033</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D30" s="26">
         <v>34609</v>
@@ -7336,19 +7342,19 @@
         <v>9855404018</v>
       </c>
       <c r="G30" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H30" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H30" s="24" t="s">
-        <v>247</v>
-      </c>
       <c r="I30" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L30" s="25">
         <v>10</v>
@@ -7360,7 +7366,7 @@
         <v>2010</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P30" s="25">
         <v>0.95800000000000007</v>
@@ -7372,7 +7378,7 @@
         <v>2012</v>
       </c>
       <c r="S30" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T30" s="25">
         <v>8.64</v>
@@ -7392,48 +7398,48 @@
       <c r="Y30" s="24"/>
       <c r="Z30" s="24"/>
       <c r="AA30" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB30" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="AB30" s="24" t="s">
+      <c r="AC30" s="24" t="s">
         <v>250</v>
-      </c>
-      <c r="AC30" s="24" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:29" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B31" s="25">
         <v>12103034</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D31" s="26">
         <v>34364</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F31" s="25">
         <v>8728887514</v>
       </c>
       <c r="G31" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="H31" s="24" t="s">
-        <v>179</v>
-      </c>
       <c r="I31" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="25">
         <v>10</v>
@@ -7445,7 +7451,7 @@
         <v>2010</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P31" s="25">
         <v>88.4</v>
@@ -7457,7 +7463,7 @@
         <v>2012</v>
       </c>
       <c r="S31" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T31" s="25">
         <v>6.08</v>
@@ -7477,72 +7483,72 @@
       <c r="Y31" s="24"/>
       <c r="Z31" s="24"/>
       <c r="AA31" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB31" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="AB31" s="24" t="s">
+      <c r="AC31" s="24" t="s">
         <v>182</v>
-      </c>
-      <c r="AC31" s="24" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:29" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B32" s="25">
         <v>12103035</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D32" s="26">
         <v>34694</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F32" s="25">
         <v>8054434734</v>
       </c>
       <c r="G32" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="H32" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="I32" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="I32" s="24" t="s">
-        <v>276</v>
-      </c>
       <c r="J32" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L32" s="25">
         <v>9.6</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N32" s="25">
         <v>2010</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P32" s="25">
         <v>93</v>
       </c>
       <c r="Q32" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R32" s="25">
         <v>2012</v>
       </c>
       <c r="S32" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T32" s="25">
         <v>8.7200000000000006</v>
@@ -7562,24 +7568,24 @@
       <c r="Y32" s="24"/>
       <c r="Z32" s="24"/>
       <c r="AA32" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB32" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="AB32" s="24" t="s">
+      <c r="AC32" s="24" t="s">
         <v>279</v>
-      </c>
-      <c r="AC32" s="24" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:29" s="25" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B33" s="25">
         <v>12103036</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="26">
         <v>34614</v>
@@ -7591,19 +7597,19 @@
         <v>9988091805</v>
       </c>
       <c r="G33" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="I33" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="I33" s="24" t="s">
-        <v>171</v>
-      </c>
       <c r="J33" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L33" s="25">
         <v>9.8000000000000007</v>
@@ -7615,7 +7621,7 @@
         <v>2010</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P33" s="25">
         <v>93.8</v>
@@ -7627,7 +7633,7 @@
         <v>2012</v>
       </c>
       <c r="S33" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T33" s="25">
         <v>8.64</v>
@@ -7647,48 +7653,48 @@
       <c r="Y33" s="24"/>
       <c r="Z33" s="24"/>
       <c r="AA33" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB33" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="AB33" s="24" t="s">
+      <c r="AC33" s="24" t="s">
         <v>175</v>
-      </c>
-      <c r="AC33" s="24" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:29" s="25" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B34" s="25">
         <v>12103037</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" s="26">
         <v>34760</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34" s="25">
         <v>8054618619</v>
       </c>
       <c r="G34" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="I34" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="I34" s="24" t="s">
-        <v>118</v>
-      </c>
       <c r="J34" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L34" s="25">
         <v>9.6</v>
@@ -7700,7 +7706,7 @@
         <v>2010</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P34" s="25">
         <v>91.6</v>
@@ -7712,7 +7718,7 @@
         <v>2012</v>
       </c>
       <c r="S34" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T34" s="25">
         <v>10</v>
@@ -7732,13 +7738,13 @@
       <c r="Y34" s="24"/>
       <c r="Z34" s="24"/>
       <c r="AA34" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB34" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AB34" s="24" t="s">
+      <c r="AC34" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="AC34" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:29" s="25" customFormat="1" x14ac:dyDescent="0.2">
